--- a/template/DCCS.xlsx
+++ b/template/DCCS.xlsx
@@ -759,7 +759,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -844,8 +844,14 @@
         <f>SUM(D5:D40)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="M2" s="2" t="str">
+        <f>IFERROR(AVERAGE(D2,G2,J2),"")</f>
+        <v/>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f>IFERROR(AVERAGE(E2,H2,K2),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
